--- a/related/services entities.xlsx
+++ b/related/services entities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-1960" windowWidth="25600" windowHeight="15800" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-1965" windowWidth="25605" windowHeight="15795" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$41</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
   <si>
     <t>CancelationReasonDict</t>
   </si>
@@ -207,10 +207,16 @@
     <t>VehicleModelServiceTestCase</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>VehicleManufacturerEntity</t>
+  </si>
+  <si>
+    <t>VehicleManufacturerServiceTestCase</t>
+  </si>
+  <si>
+    <t>VehicleServiceTestCase</t>
+  </si>
+  <si>
+    <t>SubjectServiceTestCase</t>
   </si>
 </sst>
 </file>
@@ -330,29 +336,34 @@
     <cellStyle name="Гиперссылка" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Гиперссылка" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="40" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -678,19 +689,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>59</v>
       </c>
@@ -701,7 +713,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -712,7 +724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -723,7 +735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -734,7 +746,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -745,7 +757,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>56</v>
       </c>
@@ -753,7 +765,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -764,7 +776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -775,7 +787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>56</v>
       </c>
@@ -783,7 +795,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -794,7 +806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>56</v>
       </c>
@@ -802,7 +814,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>56</v>
       </c>
@@ -810,7 +822,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -821,7 +833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -832,7 +844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -843,7 +855,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>56</v>
       </c>
@@ -851,7 +863,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -862,12 +874,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>56</v>
       </c>
@@ -875,12 +887,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>56</v>
       </c>
@@ -888,7 +900,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -899,7 +911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>56</v>
       </c>
@@ -907,7 +919,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>56</v>
       </c>
@@ -915,7 +927,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>56</v>
       </c>
@@ -923,12 +935,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>56</v>
       </c>
@@ -936,7 +948,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>56</v>
       </c>
@@ -944,7 +956,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -955,7 +967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>56</v>
       </c>
@@ -963,22 +975,28 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
       <c r="C32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>56</v>
       </c>
@@ -986,7 +1004,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -997,7 +1015,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -1008,7 +1026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>56</v>
       </c>
@@ -1016,7 +1034,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -1027,29 +1045,45 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
       <c r="C39" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
       <c r="C41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C40"/>
+  <autoFilter ref="A1:C41">
+    <filterColumn colId="1">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="C1:C39">
     <sortCondition ref="C1"/>
   </sortState>

--- a/related/services entities.xlsx
+++ b/related/services entities.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="67">
   <si>
     <t>CancelationReasonDict</t>
   </si>
@@ -217,6 +217,12 @@
   </si>
   <si>
     <t>SubjectServiceTestCase</t>
+  </si>
+  <si>
+    <t>SubjectCompanyServiceTestCase</t>
+  </si>
+  <si>
+    <t>SubjectPersonServiceTestCase</t>
   </si>
 </sst>
 </file>
@@ -689,11 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -713,7 +718,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -724,7 +729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -735,7 +740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -746,7 +751,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -757,7 +762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>56</v>
       </c>
@@ -765,7 +770,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -776,7 +781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -787,7 +792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>56</v>
       </c>
@@ -795,7 +800,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -806,7 +811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>56</v>
       </c>
@@ -814,7 +819,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>56</v>
       </c>
@@ -822,7 +827,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -833,7 +838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -844,7 +849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -855,7 +860,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>56</v>
       </c>
@@ -863,7 +868,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -879,7 +884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>56</v>
       </c>
@@ -892,7 +897,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>56</v>
       </c>
@@ -900,7 +905,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -911,7 +916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>56</v>
       </c>
@@ -919,7 +924,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>56</v>
       </c>
@@ -927,7 +932,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>56</v>
       </c>
@@ -940,7 +945,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>56</v>
       </c>
@@ -948,7 +953,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>56</v>
       </c>
@@ -956,7 +961,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -967,7 +972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>56</v>
       </c>
@@ -976,11 +981,17 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
       <c r="C31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -992,11 +1003,17 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
       <c r="C33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>56</v>
       </c>
@@ -1004,7 +1021,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -1015,7 +1032,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -1026,7 +1043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>56</v>
       </c>
@@ -1034,7 +1051,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -1045,7 +1062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -1056,7 +1073,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>60</v>
       </c>
@@ -1067,7 +1084,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -1079,11 +1096,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C41">
-    <filterColumn colId="1">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C41"/>
   <sortState ref="C1:C39">
     <sortCondition ref="C1"/>
   </sortState>
